--- a/src/main/resources/input_excel_file/Login.xlsx
+++ b/src/main/resources/input_excel_file/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>tc_id</t>
   </si>
@@ -39,10 +39,10 @@
     <t>expected_result</t>
   </si>
   <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>value</t>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
   <si>
     <t>actual_result</t>
@@ -51,6 +51,9 @@
     <t>log_result</t>
   </si>
   <si>
+    <t>expected_validation_data</t>
+  </si>
+  <si>
     <t>TC_0001</t>
   </si>
   <si>
@@ -60,10 +63,13 @@
     <t>success</t>
   </si>
   <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>5D</t>
+    <t>phuongtt-chilinh</t>
+  </si>
+  <si>
+    <t>4aNefZgJHLO83Qc30N5Bjg==</t>
+  </si>
+  <si>
+    <t>{"token": "NOT_NULL", "data.user_name": "phuongtt-chilinh"}</t>
   </si>
   <si>
     <t>TC_0002</t>
@@ -75,12 +81,24 @@
     <t>failed</t>
   </si>
   <si>
+    <t>saiuser</t>
+  </si>
+  <si>
+    <t>{"status_code": 500}</t>
+  </si>
+  <si>
     <t>TC_0003</t>
   </si>
   <si>
     <t>Verify Login Wrong Password</t>
   </si>
   <si>
+    <t>saimatkhau</t>
+  </si>
+  <si>
+    <t>{"status_code": 400}</t>
+  </si>
+  <si>
     <t>TC_0004</t>
   </si>
   <si>
@@ -108,7 +126,7 @@
     <t>login.json</t>
   </si>
   <si>
-    <t>api_quote-fee_result.json</t>
+    <t>api_login_result.json</t>
   </si>
 </sst>
 </file>
@@ -1382,23 +1400,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="21.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="14.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="11.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="18.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="37.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:7">
+    <row r="1" ht="27" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,70 +1439,96 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
+    <row r="2" ht="32.25" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" ht="29" customHeight="1" spans="1:7">
+    <row r="3" ht="29" customHeight="1" spans="1:8">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" ht="32.25" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:7">
+    <row r="5" ht="35" customHeight="1" spans="1:8">
       <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1497,7 +1542,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1510,30 +1555,30 @@
   <sheetData>
     <row r="1" ht="19.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/Login.xlsx
+++ b/src/main/resources/input_excel_file/Login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>tc_id</t>
   </si>
@@ -45,12 +45,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>actual_result</t>
-  </si>
-  <si>
-    <t>log_result</t>
-  </si>
-  <si>
     <t>expected_validation_data</t>
   </si>
   <si>
@@ -123,10 +117,10 @@
     <t>POST</t>
   </si>
   <si>
-    <t>login.json</t>
-  </si>
-  <si>
-    <t>api_login_result.json</t>
+    <t>login_request_template.json</t>
+  </si>
+  <si>
+    <t>login_result.json</t>
   </si>
 </sst>
 </file>
@@ -326,6 +320,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,12 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,7 +712,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,16 +736,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -760,52 +754,52 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,7 +855,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,24 +1394,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="21.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="14.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="19.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="37.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="37.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:8">
+    <row r="1" ht="27" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,101 +1425,88 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" ht="32.25" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" ht="29" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="32.25" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" ht="29" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
+    <row r="5" ht="35" customHeight="1" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="32.25" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="35" customHeight="1" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1542,43 +1521,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="31.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="27.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="31.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/Login.xlsx
+++ b/src/main/resources/input_excel_file/Login.xlsx
@@ -63,7 +63,10 @@
     <t>4aNefZgJHLO83Qc30N5Bjg==</t>
   </si>
   <si>
-    <t>{"token": "NOT_NULL", "data.user_name": "phuongtt-chilinh"}</t>
+    <t>{
+  "token": "NOT_NULL",
+  "data.user_name": "phuongtt-chilinh"
+}</t>
   </si>
   <si>
     <t>TC_0002</t>
@@ -128,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -694,16 +697,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1397,7 +1400,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1429,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="32.25" spans="1:6">
+    <row r="2" ht="51.75" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
